--- a/Hachinski/Trials.xlsx
+++ b/Hachinski/Trials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="11180" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AllData" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5978" uniqueCount="2449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6033" uniqueCount="2494">
   <si>
     <t>Rank</t>
   </si>
@@ -7367,13 +7367,148 @@
   </si>
   <si>
     <t>https://ClinicalTrials.gov/show/NCT01333865</t>
+  </si>
+  <si>
+    <t>memory</t>
+  </si>
+  <si>
+    <t>word list learning, face-name memory</t>
+  </si>
+  <si>
+    <t>Psychological health</t>
+  </si>
+  <si>
+    <t>anxiety, depression</t>
+  </si>
+  <si>
+    <t>Daily life</t>
+  </si>
+  <si>
+    <t>self-evals</t>
+  </si>
+  <si>
+    <t>comprehensive battery</t>
+  </si>
+  <si>
+    <t>EF</t>
+  </si>
+  <si>
+    <t>Cerebrovascular function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcranial doppler </t>
+  </si>
+  <si>
+    <t>adverse events</t>
+  </si>
+  <si>
+    <t>presence</t>
+  </si>
+  <si>
+    <t>word list, face-names</t>
+  </si>
+  <si>
+    <t>depression</t>
+  </si>
+  <si>
+    <t>quality of life</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>exercise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">life satisfaction; program satisfaction </t>
+  </si>
+  <si>
+    <t>meaningful activities</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>caregiver tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">story recall, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alzheimer's Disease Assessmnet Scale, MMSE, DS, Word fluency, stroop, digit symbol, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">not specific </t>
+  </si>
+  <si>
+    <t>presence of</t>
+  </si>
+  <si>
+    <t>Hopkins Verbal learning test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neuropsychological battery, Alzheimer's Disease Cooperative Study (ADSC) Measures </t>
+  </si>
+  <si>
+    <t>ten point clock drawing, color trails 1 and 2</t>
+  </si>
+  <si>
+    <t>not specific</t>
+  </si>
+  <si>
+    <t>Rey Auditory Verbal Learning Test - episodic memory</t>
+  </si>
+  <si>
+    <t>not specific neuropsych tests</t>
+  </si>
+  <si>
+    <t>word-list, face-name</t>
+  </si>
+  <si>
+    <t>depression, anxiety</t>
+  </si>
+  <si>
+    <t>Global memory, visual retention and verbal fluency composite score</t>
+  </si>
+  <si>
+    <t>changes in a neuropsychological assessment battery</t>
+  </si>
+  <si>
+    <t>MMSE, CDR</t>
+  </si>
+  <si>
+    <t>list of specific neuropsych tests</t>
+  </si>
+  <si>
+    <t>word generation tasks</t>
+  </si>
+  <si>
+    <t>divided attention tasks; verbal episodic encoding/recognition; Halstead Trail Making; fluency; DS forward, backward</t>
+  </si>
+  <si>
+    <t>QoL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QoL; Alzheimer's Disease Cooperative Study (ADSC) Measures </t>
+  </si>
+  <si>
+    <t>Alzheimer's Disease Assessment Scale - cognitive subscale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">depression, </t>
+  </si>
+  <si>
+    <t>activiites of daily living;</t>
+  </si>
+  <si>
+    <t>MoCA; Alzheimer's Disease Assessment Scale + Cognitive Subscale Extended Version</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7400,6 +7535,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -7418,18 +7562,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -23566,10 +23731,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F546"/>
+  <dimension ref="A1:N546"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -23578,27 +23743,51 @@
     <col min="5" max="5" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="2" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2456</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>2451</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>2453</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>2457</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>2459</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>2464</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>1</v>
       </c>
@@ -23617,8 +23806,17 @@
       <c r="F2" s="1">
         <v>40934</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>2450</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2452</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2</v>
       </c>
@@ -23637,8 +23835,17 @@
       <c r="F3" s="1">
         <v>41207</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>2455</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2455</v>
+      </c>
+      <c r="K3" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>3</v>
       </c>
@@ -23657,8 +23864,11 @@
       <c r="F4" s="1">
         <v>40191</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="L4" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>4</v>
       </c>
@@ -23677,8 +23887,20 @@
       <c r="F5" s="1">
         <v>41733</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s">
+        <v>2461</v>
+      </c>
+      <c r="I5" t="s">
+        <v>2462</v>
+      </c>
+      <c r="J5" t="s">
+        <v>2463</v>
+      </c>
+      <c r="M5" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>5</v>
       </c>
@@ -23697,8 +23919,11 @@
       <c r="F6" s="1">
         <v>41206</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="N6" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>6</v>
       </c>
@@ -23717,8 +23942,20 @@
       <c r="F7" s="1">
         <v>41307</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="I7" t="s">
+        <v>2462</v>
+      </c>
+      <c r="J7" t="s">
+        <v>2466</v>
+      </c>
+      <c r="M7" t="s">
+        <v>2467</v>
+      </c>
+      <c r="N7" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>7</v>
       </c>
@@ -23737,8 +23974,17 @@
       <c r="F8" s="1">
         <v>40052</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2471</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>8</v>
       </c>
@@ -23757,8 +24003,17 @@
       <c r="F9" s="1">
         <v>39591</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" t="s">
+        <v>2472</v>
+      </c>
+      <c r="J9" t="s">
+        <v>2472</v>
+      </c>
+      <c r="L9" t="s">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>9</v>
       </c>
@@ -23777,8 +24032,14 @@
       <c r="F10" s="1">
         <v>41656</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" t="s">
+        <v>2474</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>10</v>
       </c>
@@ -23797,8 +24058,14 @@
       <c r="F11" s="1">
         <v>41314</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="H11" t="s">
+        <v>2476</v>
+      </c>
+      <c r="J11" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>11</v>
       </c>
@@ -23817,8 +24084,11 @@
       <c r="F12" s="1">
         <v>41089</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>12</v>
       </c>
@@ -23837,8 +24107,14 @@
       <c r="F13" s="1">
         <v>40841</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" t="s">
+        <v>2479</v>
+      </c>
+      <c r="I13" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>13</v>
       </c>
@@ -23857,8 +24133,14 @@
       <c r="F14" s="1">
         <v>41446</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" t="s">
+        <v>2480</v>
+      </c>
+      <c r="I14" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>14</v>
       </c>
@@ -23878,7 +24160,7 @@
         <v>41739</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>15</v>
       </c>
@@ -23897,8 +24179,11 @@
       <c r="F16" s="1">
         <v>40233</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>16</v>
       </c>
@@ -23917,8 +24202,11 @@
       <c r="F17" s="1">
         <v>37372</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" t="s">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>17</v>
       </c>
@@ -23937,8 +24225,17 @@
       <c r="F18" s="1">
         <v>40848</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" t="s">
+        <v>2485</v>
+      </c>
+      <c r="H18" t="s">
+        <v>2484</v>
+      </c>
+      <c r="I18" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>18</v>
       </c>
@@ -23957,8 +24254,11 @@
       <c r="F19" s="1">
         <v>39962</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>19</v>
       </c>
@@ -23977,8 +24277,11 @@
       <c r="F20" s="1">
         <v>40046</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="H20" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>20</v>
       </c>
@@ -23998,7 +24301,7 @@
         <v>40515</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>21</v>
       </c>
@@ -24017,8 +24320,14 @@
       <c r="F22" s="1">
         <v>40295</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" t="s">
+        <v>2487</v>
+      </c>
+      <c r="J22" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>22</v>
       </c>
@@ -24037,8 +24346,11 @@
       <c r="F23" s="1">
         <v>38127</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="J23" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>23</v>
       </c>
@@ -24057,8 +24369,11 @@
       <c r="F24" s="1">
         <v>41482</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="H24" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>24</v>
       </c>
@@ -24077,8 +24392,17 @@
       <c r="F25" s="1">
         <v>40885</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" t="s">
+        <v>2485</v>
+      </c>
+      <c r="I25" t="s">
+        <v>2491</v>
+      </c>
+      <c r="J25" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>25</v>
       </c>
@@ -24097,8 +24421,14 @@
       <c r="F26" s="1">
         <v>40960</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="H26" t="s">
+        <v>2493</v>
+      </c>
+      <c r="I26" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>26</v>
       </c>
@@ -24118,7 +24448,7 @@
         <v>41622</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>27</v>
       </c>
@@ -24138,7 +24468,7 @@
         <v>39744</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>28</v>
       </c>
@@ -24155,7 +24485,7 @@
         <v>37065</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>29</v>
       </c>
@@ -24175,7 +24505,7 @@
         <v>41664</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>30</v>
       </c>
@@ -24195,7 +24525,7 @@
         <v>40009</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>31</v>
       </c>
@@ -34452,6 +34782,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
